--- a/Team-Data/2013-14/3-19-2013-14.xlsx
+++ b/Team-Data/2013-14/3-19-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -765,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>1</v>
@@ -780,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -789,13 +856,13 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
         <v>19</v>
@@ -816,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>46</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,46 +933,46 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
         <v>0.772</v>
       </c>
       <c r="R3" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S3" t="n">
         <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -920,13 +987,13 @@
         <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -935,7 +1002,7 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -947,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -971,19 +1038,19 @@
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="n">
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>0.523</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1057,19 +1124,19 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
         <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="R4" t="n">
         <v>8.800000000000001</v>
@@ -1084,13 +1151,13 @@
         <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
         <v>8.6</v>
       </c>
       <c r="X4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
@@ -1102,16 +1169,16 @@
         <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1159,25 +1226,25 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ4" t="n">
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -1212,64 +1279,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.478</v>
+        <v>0.485</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
         <v>0.734</v>
       </c>
       <c r="R5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
         <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
         <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.2</v>
@@ -1278,25 +1345,25 @@
         <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>95.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF5" t="n">
         <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1323,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>11</v>
@@ -1332,16 +1399,16 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1356,10 +1423,10 @@
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,7 +1479,7 @@
         <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.43</v>
@@ -1424,16 +1491,16 @@
         <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
         <v>11.8</v>
@@ -1442,7 +1509,7 @@
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U6" t="n">
         <v>22.4</v>
@@ -1451,7 +1518,7 @@
         <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.2</v>
@@ -1466,13 +1533,13 @@
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1508,13 +1575,13 @@
         <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1681,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>
@@ -1711,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.594</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
         <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O8" t="n">
         <v>17</v>
@@ -1797,22 +1864,22 @@
         <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="R8" t="n">
         <v>9.9</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T8" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
@@ -1830,31 +1897,31 @@
         <v>19.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.4</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
         <v>21</v>
@@ -1911,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
         <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.456</v>
+        <v>0.448</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J9" t="n">
         <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L9" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
@@ -1982,16 +2049,16 @@
         <v>0.72</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S9" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T9" t="n">
         <v>45.6</v>
       </c>
       <c r="U9" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
         <v>15.8</v>
@@ -2009,19 +2076,19 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="n">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O10" t="n">
         <v>17.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q10" t="n">
         <v>0.671</v>
@@ -2173,13 +2240,13 @@
         <v>45</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V10" t="n">
         <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2194,13 +2261,13 @@
         <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC10" t="n">
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,13 +2288,13 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2260,13 +2327,13 @@
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2403,10 +2470,10 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2421,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
         <v>16</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2588,16 +2655,16 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2609,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.735</v>
+        <v>0.746</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,7 +2753,7 @@
         <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.454</v>
@@ -2698,7 +2765,7 @@
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
         <v>18.5</v>
@@ -2707,19 +2774,19 @@
         <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.782</v>
+        <v>0.784</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S13" t="n">
         <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
         <v>15.3</v>
@@ -2737,19 +2804,19 @@
         <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
@@ -2767,16 +2834,16 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2803,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2812,16 +2879,16 @@
         <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2973,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,10 +3117,10 @@
         <v>37.7</v>
       </c>
       <c r="J15" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3065,13 +3132,13 @@
         <v>0.382</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P15" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R15" t="n">
         <v>9.1</v>
@@ -3083,7 +3150,7 @@
         <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
@@ -3095,7 +3162,7 @@
         <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>20</v>
@@ -3104,40 +3171,40 @@
         <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG15" t="n">
         <v>25</v>
       </c>
-      <c r="AG15" t="n">
-        <v>26</v>
-      </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
       </c>
       <c r="AM15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
         <v>3</v>
@@ -3149,10 +3216,10 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3164,10 +3231,10 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX15" t="n">
         <v>3</v>
@@ -3179,13 +3246,13 @@
         <v>9</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
         <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.597</v>
+        <v>0.591</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3244,22 +3311,22 @@
         <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O16" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R16" t="n">
         <v>11.3</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
         <v>42.2</v>
@@ -3271,7 +3338,7 @@
         <v>13.7</v>
       </c>
       <c r="W16" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X16" t="n">
         <v>4.7</v>
@@ -3283,16 +3350,16 @@
         <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3301,13 +3368,13 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
         <v>46</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.697</v>
+        <v>0.708</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,43 +3481,43 @@
         <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.506</v>
+        <v>0.507</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N17" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>7.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
         <v>36.6</v>
       </c>
       <c r="U17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>9.1</v>
@@ -3462,19 +3529,19 @@
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
@@ -3507,10 +3574,10 @@
         <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3534,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,22 +3741,22 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
         <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="n">
         <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.515</v>
+        <v>0.508</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J19" t="n">
         <v>87.59999999999999</v>
@@ -3787,25 +3854,25 @@
         <v>7.4</v>
       </c>
       <c r="M19" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N19" t="n">
         <v>0.341</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T19" t="n">
         <v>45.1</v>
@@ -3829,16 +3896,16 @@
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="AC19" t="n">
         <v>3.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,13 +3917,13 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3865,13 +3932,13 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3883,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -3942,70 +4009,70 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
         <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>0.403</v>
+        <v>0.409</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
         <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>5.9</v>
       </c>
       <c r="M20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O20" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
         <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>6.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
         <v>22.8</v>
@@ -4017,31 +4084,31 @@
         <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4050,10 +4117,10 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
@@ -4062,16 +4129,16 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.412</v>
+        <v>0.403</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O21" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="P21" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
         <v>13</v>
@@ -4190,28 +4257,28 @@
         <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4220,19 +4287,19 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4262,16 +4329,16 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA21" t="n">
         <v>26</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>25</v>
       </c>
       <c r="BB21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -4384,13 +4451,13 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4450,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4459,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="n">
-        <v>0.275</v>
+        <v>0.279</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J23" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.767</v>
@@ -4533,7 +4600,7 @@
         <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
         <v>42.2</v>
@@ -4542,7 +4609,7 @@
         <v>21</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W23" t="n">
         <v>7.7</v>
@@ -4554,19 +4621,19 @@
         <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4581,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
@@ -4620,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4632,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" t="n">
-        <v>0.221</v>
+        <v>0.224</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
@@ -4688,28 +4755,28 @@
         <v>37.9</v>
       </c>
       <c r="J24" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.431</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M24" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.309</v>
+        <v>0.307</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
         <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.711</v>
+        <v>0.714</v>
       </c>
       <c r="R24" t="n">
         <v>11.8</v>
@@ -4718,7 +4785,7 @@
         <v>31.6</v>
       </c>
       <c r="T24" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U24" t="n">
         <v>21.9</v>
@@ -4739,7 +4806,7 @@
         <v>22.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB24" t="n">
         <v>99.2</v>
@@ -4748,7 +4815,7 @@
         <v>-11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.574</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
         <v>9.300000000000001</v>
@@ -4882,16 +4949,16 @@
         <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P25" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4912,7 +4979,7 @@
         <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
         <v>4.1</v>
@@ -4921,16 +4988,16 @@
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
         <v>105.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4942,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4960,22 +5027,22 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="n">
         <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
@@ -4990,10 +5057,10 @@
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>23</v>
@@ -5002,10 +5069,10 @@
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5127,10 +5194,10 @@
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5145,7 +5212,7 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
@@ -5181,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5309,19 +5376,19 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
         <v>27</v>
@@ -5351,10 +5418,10 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.491</v>
+        <v>0.49</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="O28" t="n">
         <v>15.9</v>
@@ -5443,19 +5510,19 @@
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5464,19 +5531,19 @@
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA28" t="n">
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.4</v>
+        <v>105.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5521,16 +5588,16 @@
         <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV28" t="n">
         <v>15</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
@@ -5542,13 +5609,13 @@
         <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="n">
         <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5598,10 +5665,10 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
@@ -5610,25 +5677,25 @@
         <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S29" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U29" t="n">
         <v>21.4</v>
@@ -5649,16 +5716,16 @@
         <v>23.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5682,7 +5749,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5691,16 +5758,16 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS29" t="n">
         <v>19</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="n">
         <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" t="n">
-        <v>0.319</v>
+        <v>0.324</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K30" t="n">
         <v>0.443</v>
@@ -5792,16 +5859,16 @@
         <v>19.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P30" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
@@ -5810,19 +5877,19 @@
         <v>30.4</v>
       </c>
       <c r="T30" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
@@ -5834,22 +5901,22 @@
         <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF30" t="n">
         <v>26</v>
       </c>
-      <c r="AF30" t="n">
-        <v>27</v>
-      </c>
       <c r="AG30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>27</v>
@@ -5864,22 +5931,22 @@
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>24</v>
       </c>
       <c r="AN30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP30" t="n">
         <v>21</v>
       </c>
-      <c r="AO30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP30" t="n">
+      <c r="AQ30" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>23</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5894,13 +5961,13 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5915,7 +5982,7 @@
         <v>29</v>
       </c>
       <c r="BC30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6046,7 +6113,7 @@
         <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>17</v>
@@ -6082,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-19-2013-14</t>
+          <t>2014-03-19</t>
         </is>
       </c>
     </row>
